--- a/TestData/CP_TestData.xlsx
+++ b/TestData/CP_TestData.xlsx
@@ -201,7 +201,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="47">
+  <x:cellStyleXfs count="48">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -222,6 +222,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -924,7 +927,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="K2" r:id="rId9"/>
+    <x:hyperlink ref="K2" r:id="rId10"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
